--- a/docss/trend/croatia/E_huntington.xlsx
+++ b/docss/trend/croatia/E_huntington.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Elena\Desktop\IC3-Design\docs\trend\croatia\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ELENA\Documents\IC3\ic3desarrollo\docss\trend\croatia\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -221,7 +221,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -239,7 +239,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1559,10 +1558,13 @@
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="6" max="6" width="11.85546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -1582,13 +1584,13 @@
       <c r="A2">
         <v>1999</v>
       </c>
-      <c r="B2" s="7">
+      <c r="B2">
         <v>0</v>
       </c>
-      <c r="C2" s="7">
+      <c r="C2">
         <v>0</v>
       </c>
-      <c r="D2" s="7">
+      <c r="D2">
         <v>0</v>
       </c>
     </row>
@@ -1596,210 +1598,210 @@
       <c r="A3">
         <v>2000</v>
       </c>
-      <c r="B3" s="7">
-        <v>0.13023286871612072</v>
-      </c>
-      <c r="C3" s="7">
-        <v>0.15753790363669395</v>
-      </c>
-      <c r="D3" s="7">
-        <v>0.10743742808699608</v>
+      <c r="B3">
+        <v>0.13</v>
+      </c>
+      <c r="C3">
+        <v>0.158</v>
+      </c>
+      <c r="D3">
+        <v>0.107</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2001</v>
       </c>
-      <c r="B4" s="7">
-        <v>2.3351002484560013E-2</v>
-      </c>
-      <c r="C4" s="7">
+      <c r="B4">
+        <v>2.3E-2</v>
+      </c>
+      <c r="C4">
         <v>0</v>
       </c>
-      <c r="D4" s="7">
-        <v>4.6189680695533752E-2</v>
+      <c r="D4">
+        <v>4.5999999999999999E-2</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2002</v>
       </c>
-      <c r="B5" s="7">
-        <v>8.5401173681020737E-2</v>
-      </c>
-      <c r="C5" s="7">
-        <v>0.13254823908209801</v>
-      </c>
-      <c r="D5" s="7">
-        <v>4.1152261197566986E-2</v>
+      <c r="B5">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="C5">
+        <v>0.13300000000000001</v>
+      </c>
+      <c r="D5">
+        <v>4.1000000000000002E-2</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2003</v>
       </c>
-      <c r="B6" s="7">
-        <v>2.2278804332017899E-2</v>
-      </c>
-      <c r="C6" s="7">
+      <c r="B6">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="C6">
         <v>0</v>
       </c>
-      <c r="D6" s="7">
-        <v>4.4472683221101761E-2</v>
+      <c r="D6">
+        <v>4.3999999999999997E-2</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2004</v>
       </c>
-      <c r="B7" s="7">
-        <v>1.3351134955883026E-2</v>
-      </c>
-      <c r="C7" s="7">
+      <c r="B7">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="C7">
         <v>0</v>
       </c>
-      <c r="D7" s="7">
-        <v>2.0725388079881668E-2</v>
+      <c r="D7">
+        <v>2.1000000000000001E-2</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2005</v>
       </c>
-      <c r="B8" s="7">
-        <v>9.7961869090795517E-2</v>
-      </c>
-      <c r="C8" s="7">
-        <v>0.12931486591696739</v>
-      </c>
-      <c r="D8" s="7">
-        <v>7.2632504627108574E-2</v>
+      <c r="B8">
+        <v>9.8000000000000004E-2</v>
+      </c>
+      <c r="C8">
+        <v>0.129</v>
+      </c>
+      <c r="D8">
+        <v>7.2999999999999995E-2</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2006</v>
       </c>
-      <c r="B9" s="7">
-        <v>0.17006238736212254</v>
-      </c>
-      <c r="C9" s="7">
-        <v>4.2353909462690353E-2</v>
-      </c>
-      <c r="D9" s="7">
-        <v>0.29188059270381927</v>
+      <c r="B9">
+        <v>0.17</v>
+      </c>
+      <c r="C9">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="D9">
+        <v>0.29199999999999998</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2007</v>
       </c>
-      <c r="B10" s="7">
-        <v>0.12370672076940536</v>
-      </c>
-      <c r="C10" s="7">
-        <v>0.13726871460676193</v>
-      </c>
-      <c r="D10" s="7">
-        <v>0.10927940160036087</v>
+      <c r="B10">
+        <v>0.124</v>
+      </c>
+      <c r="C10">
+        <v>0.13700000000000001</v>
+      </c>
+      <c r="D10">
+        <v>0.109</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2008</v>
       </c>
-      <c r="B11" s="7">
-        <v>0.15843428298830986</v>
-      </c>
-      <c r="C11" s="7">
-        <v>0.12767791748046875</v>
-      </c>
-      <c r="D11" s="7">
-        <v>0.18191161751747131</v>
+      <c r="B11">
+        <v>0.158</v>
+      </c>
+      <c r="C11">
+        <v>0.128</v>
+      </c>
+      <c r="D11">
+        <v>0.182</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2009</v>
       </c>
-      <c r="B12" s="7">
-        <v>0.11638293322175741</v>
-      </c>
-      <c r="C12" s="7">
-        <v>0.15916699543595314</v>
-      </c>
-      <c r="D12" s="7">
-        <v>7.917306199669838E-2</v>
+      <c r="B12">
+        <v>0.11600000000000001</v>
+      </c>
+      <c r="C12">
+        <v>0.159</v>
+      </c>
+      <c r="D12">
+        <v>7.9000000000000001E-2</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2010</v>
       </c>
-      <c r="B13" s="7">
-        <v>0.1789526604115963</v>
-      </c>
-      <c r="C13" s="7">
-        <v>0.19915022701025009</v>
-      </c>
-      <c r="D13" s="7">
-        <v>0.15708722174167633</v>
+      <c r="B13">
+        <v>0.17899999999999999</v>
+      </c>
+      <c r="C13">
+        <v>0.19900000000000001</v>
+      </c>
+      <c r="D13">
+        <v>0.157</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2011</v>
       </c>
-      <c r="B14" s="7">
-        <v>0.24567178077995777</v>
-      </c>
-      <c r="C14" s="7">
-        <v>0.13625213131308556</v>
-      </c>
-      <c r="D14" s="7">
-        <v>0.3439412284642458</v>
+      <c r="B14">
+        <v>0.246</v>
+      </c>
+      <c r="C14">
+        <v>0.13600000000000001</v>
+      </c>
+      <c r="D14">
+        <v>0.34399999999999997</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>2012</v>
       </c>
-      <c r="B15" s="7">
-        <v>0.17305181175470352</v>
-      </c>
-      <c r="C15" s="7">
-        <v>0.18468176573514938</v>
-      </c>
-      <c r="D15" s="7">
-        <v>0.15558033436536789</v>
+      <c r="B15">
+        <v>0.17299999999999999</v>
+      </c>
+      <c r="C15">
+        <v>0.185</v>
+      </c>
+      <c r="D15">
+        <v>0.156</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>2013</v>
       </c>
-      <c r="B16" s="7">
-        <v>0.16180879343301058</v>
-      </c>
-      <c r="C16" s="7">
-        <v>0.22336489707231522</v>
-      </c>
-      <c r="D16" s="7">
-        <v>9.4661738723516464E-2</v>
+      <c r="B16">
+        <v>0.16200000000000001</v>
+      </c>
+      <c r="C16">
+        <v>0.223</v>
+      </c>
+      <c r="D16">
+        <v>9.5000000000000001E-2</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>2014</v>
       </c>
-      <c r="B17" s="7">
-        <v>0.21612736489623785</v>
-      </c>
-      <c r="C17" s="7">
-        <v>0.20799006149172783</v>
-      </c>
-      <c r="D17" s="7">
-        <v>0.22245398722589016</v>
+      <c r="B17">
+        <v>0.216</v>
+      </c>
+      <c r="C17">
+        <v>0.20799999999999999</v>
+      </c>
+      <c r="D17">
+        <v>0.222</v>
       </c>
     </row>
   </sheetData>
